--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541960333333333</v>
+        <v>3.027114666666666</v>
       </c>
       <c r="H2">
-        <v>7.625881</v>
+        <v>9.081344</v>
       </c>
       <c r="I2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="J2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N2">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1462381306565556</v>
+        <v>0.8350245356088888</v>
       </c>
       <c r="R2">
-        <v>1.316143175909</v>
+        <v>7.51522082048</v>
       </c>
       <c r="S2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
       <c r="T2">
-        <v>0.2001320062549445</v>
+        <v>0.207506525262911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,25 +605,25 @@
         <v>2.518570333333333</v>
       </c>
       <c r="H3">
-        <v>7.555711</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I3">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="J3">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N3">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1448925117532222</v>
+        <v>0.6947434288327777</v>
       </c>
       <c r="R3">
-        <v>1.304032605779</v>
+        <v>6.252690859495</v>
       </c>
       <c r="S3">
-        <v>0.1982904796327865</v>
+        <v>0.1726461783080517</v>
       </c>
       <c r="T3">
-        <v>0.1982904796327864</v>
+        <v>0.1726461783080516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.780877333333333</v>
+        <v>4.235286666666666</v>
       </c>
       <c r="H4">
-        <v>8.342632</v>
+        <v>12.70586</v>
       </c>
       <c r="I4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="J4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N4">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1599829460275556</v>
+        <v>1.168296768188889</v>
       </c>
       <c r="R4">
-        <v>1.439846514248</v>
+        <v>10.5146709137</v>
       </c>
       <c r="S4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382188</v>
       </c>
       <c r="T4">
-        <v>0.2189422677336167</v>
+        <v>0.2903258437382187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237736333333333</v>
+        <v>1.937427333333333</v>
       </c>
       <c r="H5">
-        <v>3.713209</v>
+        <v>5.812282</v>
       </c>
       <c r="I5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="J5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N5">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0712065586778889</v>
+        <v>0.5344361008544444</v>
       </c>
       <c r="R5">
-        <v>0.640859028101</v>
+        <v>4.809924907689999</v>
       </c>
       <c r="S5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
       <c r="T5">
-        <v>0.09744867075868563</v>
+        <v>0.1328092451588843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.622274</v>
+        <v>2.869646666666667</v>
       </c>
       <c r="H6">
-        <v>10.866822</v>
+        <v>8.60894</v>
       </c>
       <c r="I6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="J6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05752966666666667</v>
+        <v>0.2758483333333333</v>
       </c>
       <c r="N6">
-        <v>0.172589</v>
+        <v>0.827545</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.2083882157953333</v>
+        <v>0.7915872502555554</v>
       </c>
       <c r="R6">
-        <v>1.875493942158</v>
+        <v>7.1242852523</v>
       </c>
       <c r="S6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
       <c r="T6">
-        <v>0.2851865756199669</v>
+        <v>0.1967122075319342</v>
       </c>
     </row>
   </sheetData>
